--- a/src/main/webapp/download/import.xlsx
+++ b/src/main/webapp/download/import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="房间和账单" sheetId="1" r:id="rId1"/>
@@ -15,19 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>吉翔翡翠园</t>
-  </si>
-  <si>
-    <t>1-01</t>
-  </si>
-  <si>
-    <t>陆袁桥</t>
-  </si>
-  <si>
-    <t>13877777777</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>组团(可选)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,19 +77,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017-07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-11-23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-12-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫须有小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业管理费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电公摊费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾清运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13877777771</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共照明费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸汽费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-01室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -559,67 +595,67 @@
   <sheetData>
     <row r="1" spans="1:12" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>20</v>
@@ -628,7 +664,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -640,12 +676,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/webapp/download/import.xlsx
+++ b/src/main/webapp/download/import.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="房间和账单" sheetId="1" r:id="rId1"/>
-    <sheet name="费用类型表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>组团(可选)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,30 +72,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>费用项目(必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>莫须有小区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物业管理费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水电公摊费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾清运费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20171123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,26 +93,6 @@
   </si>
   <si>
     <t>2017年07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共照明费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒸汽费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -573,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -590,10 +549,10 @@
     <col min="7" max="7" width="23.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -627,13 +586,10 @@
       <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -643,28 +599,25 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -672,87 +625,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>